--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -468,7 +468,7 @@
     <t>MedicationDispense.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1340,7 +1340,7 @@
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られたプロシジャー（処置等）に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
